--- a/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
+++ b/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynns/sources/git/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05DF5C-1EBD-4E4A-8BEE-F7A555433995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670B8CE-B5D1-2A4F-B4F0-93875E666D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>

--- a/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
+++ b/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynns/sources/git/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670B8CE-B5D1-2A4F-B4F0-93875E666D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7149E3-0213-694B-BA1F-46FBB803874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
     <sheet name="INTER_SWITCH_LINKS" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="56">
   <si>
     <t>Source</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>SITE</t>
+  </si>
+  <si>
+    <t>cn01</t>
+  </si>
+  <si>
+    <t>u15</t>
+  </si>
+  <si>
+    <t>cn02</t>
+  </si>
+  <si>
+    <t>u16</t>
+  </si>
+  <si>
+    <t>cn03</t>
+  </si>
+  <si>
+    <t>u17</t>
+  </si>
+  <si>
+    <t>cn04</t>
+  </si>
+  <si>
+    <t>u18</t>
   </si>
 </sst>
 </file>
@@ -566,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AEA7A-78A2-1142-B8D3-13084383B4B0}">
   <dimension ref="J14:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
@@ -2160,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7990636-0CF9-6941-8EF6-80CF48D8BDA7}">
-  <dimension ref="J14:T24"/>
+  <dimension ref="J14:T28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="J25" sqref="J25:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,6 +2535,122 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6AFE8-EB28-2149-9C5F-BA9B2992165A}">
-  <dimension ref="J14:U23"/>
+  <dimension ref="J14:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2800,6 +2940,110 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
+++ b/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynns/sources/git/canu/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7149E3-0213-694B-BA1F-46FBB803874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F95299-5655-8C4B-920C-A92BA8874A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
-    <sheet name="INTER_SWITCH_LINKS" sheetId="4" r:id="rId1"/>
+    <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
     <sheet name="NON_COMPUTE_NODES" sheetId="1" r:id="rId2"/>
     <sheet name="HARDWARE_MANAGEMENT" sheetId="3" r:id="rId3"/>
     <sheet name="COMPUTE_NODES" sheetId="2" r:id="rId4"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AEA7A-78A2-1142-B8D3-13084383B4B0}">
   <dimension ref="J14:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2660,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6AFE8-EB28-2149-9C5F-BA9B2992165A}">
   <dimension ref="J14:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24:T27"/>
     </sheetView>
   </sheetViews>

--- a/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
+++ b/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F95299-5655-8C4B-920C-A92BA8874A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8E095-B939-C24B-9535-B4D47594965A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="77000" yWindow="-6620" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
     <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="57">
   <si>
     <t>Source</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>u18</t>
+  </si>
+  <si>
+    <t>onboard</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AEA7A-78A2-1142-B8D3-13084383B4B0}">
   <dimension ref="J14:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2660,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6AFE8-EB28-2149-9C5F-BA9B2992165A}">
   <dimension ref="J14:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:T27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,6 +2953,9 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
       <c r="O24">
         <v>1</v>
       </c>
@@ -2976,6 +2982,9 @@
       <c r="L25" t="s">
         <v>51</v>
       </c>
+      <c r="M25" t="s">
+        <v>56</v>
+      </c>
       <c r="O25">
         <v>1</v>
       </c>
@@ -3002,6 +3011,9 @@
       <c r="L26" t="s">
         <v>53</v>
       </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
       <c r="O26">
         <v>1</v>
       </c>
@@ -3027,6 +3039,9 @@
       </c>
       <c r="L27" t="s">
         <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
       </c>
       <c r="O27">
         <v>1</v>

--- a/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
+++ b/tests/data/TDS_Architecture_Golden_Config_0.0.6.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynns/sources/git/canu/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670B8CE-B5D1-2A4F-B4F0-93875E666D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8E095-B939-C24B-9535-B4D47594965A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="77000" yWindow="-6620" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
-    <sheet name="INTER_SWITCH_LINKS" sheetId="4" r:id="rId1"/>
+    <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
     <sheet name="NON_COMPUTE_NODES" sheetId="1" r:id="rId2"/>
     <sheet name="HARDWARE_MANAGEMENT" sheetId="3" r:id="rId3"/>
     <sheet name="COMPUTE_NODES" sheetId="2" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="57">
   <si>
     <t>Source</t>
   </si>
@@ -181,6 +181,33 @@
   </si>
   <si>
     <t>SITE</t>
+  </si>
+  <si>
+    <t>cn01</t>
+  </si>
+  <si>
+    <t>u15</t>
+  </si>
+  <si>
+    <t>cn02</t>
+  </si>
+  <si>
+    <t>u16</t>
+  </si>
+  <si>
+    <t>cn03</t>
+  </si>
+  <si>
+    <t>u17</t>
+  </si>
+  <si>
+    <t>cn04</t>
+  </si>
+  <si>
+    <t>u18</t>
+  </si>
+  <si>
+    <t>onboard</t>
   </si>
 </sst>
 </file>
@@ -566,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AEA7A-78A2-1142-B8D3-13084383B4B0}">
   <dimension ref="J14:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2160,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7990636-0CF9-6941-8EF6-80CF48D8BDA7}">
-  <dimension ref="J14:T24"/>
+  <dimension ref="J14:T28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="J25" sqref="J25:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,6 +2538,122 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2518,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE6AFE8-EB28-2149-9C5F-BA9B2992165A}">
-  <dimension ref="J14:U23"/>
+  <dimension ref="J14:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2800,6 +2943,122 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
